--- a/wood_spirit/wood_spirit.xlsx
+++ b/wood_spirit/wood_spirit.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhour\Desktop\codingame-rust\wood_spirit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575DE29F-C9D5-49C2-9DF8-E845FD1D21F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0594B1FE-B7E8-4E47-81B3-0A0434F6E49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD9F66BD-2EA5-4D5F-9702-8B49EE766CAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CD9F66BD-2EA5-4D5F-9702-8B49EE766CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="board" sheetId="1" r:id="rId1"/>
+    <sheet name="cell neighbors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>row</t>
   </si>
@@ -45,13 +46,42 @@
   <si>
     <t>hex_pos</t>
   </si>
+  <si>
+    <t>cell pos</t>
+  </si>
+  <si>
+    <t>dir 0</t>
+  </si>
+  <si>
+    <t>dir 1</t>
+  </si>
+  <si>
+    <t>dir 2</t>
+  </si>
+  <si>
+    <t>dir 3</t>
+  </si>
+  <si>
+    <t>dir 4</t>
+  </si>
+  <si>
+    <t>dir 5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,9 +109,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE486101-303C-41FE-B1FC-2099879E939F}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D38"/>
     </sheetView>
   </sheetViews>
@@ -976,4 +1013,897 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCAE565-8B22-48A6-B6E9-51C92F30BAF4}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4">
+        <v>27</v>
+      </c>
+      <c r="F14" s="4">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4">
+        <v>29</v>
+      </c>
+      <c r="G15" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4">
+        <v>30</v>
+      </c>
+      <c r="G16" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4">
+        <v>31</v>
+      </c>
+      <c r="G17" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4">
+        <v>32</v>
+      </c>
+      <c r="G18" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4">
+        <v>33</v>
+      </c>
+      <c r="G19" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4">
+        <v>17</v>
+      </c>
+      <c r="G20" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4">
+        <v>36</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>23</v>
+      </c>
+      <c r="F24" s="4">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>24</v>
+      </c>
+      <c r="F25" s="4">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>27</v>
+      </c>
+      <c r="G28" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>28</v>
+      </c>
+      <c r="G29" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4">
+        <v>27</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>14</v>
+      </c>
+      <c r="C31" s="4">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4">
+        <v>28</v>
+      </c>
+      <c r="E31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4">
+        <v>29</v>
+      </c>
+      <c r="E32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <v>15</v>
+      </c>
+      <c r="D33" s="4">
+        <v>30</v>
+      </c>
+      <c r="E33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <v>16</v>
+      </c>
+      <c r="D34" s="4">
+        <v>15</v>
+      </c>
+      <c r="E34" s="4">
+        <v>31</v>
+      </c>
+      <c r="F34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <v>17</v>
+      </c>
+      <c r="D35" s="4">
+        <v>16</v>
+      </c>
+      <c r="E35" s="4">
+        <v>32</v>
+      </c>
+      <c r="F35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>35</v>
+      </c>
+      <c r="D36" s="4">
+        <v>17</v>
+      </c>
+      <c r="E36" s="4">
+        <v>33</v>
+      </c>
+      <c r="F36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>36</v>
+      </c>
+      <c r="D37" s="4">
+        <v>18</v>
+      </c>
+      <c r="E37" s="4">
+        <v>17</v>
+      </c>
+      <c r="F37" s="4">
+        <v>34</v>
+      </c>
+      <c r="G37" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>19</v>
+      </c>
+      <c r="D38" s="4">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4">
+        <v>18</v>
+      </c>
+      <c r="F38" s="4">
+        <v>35</v>
+      </c>
+      <c r="G38" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>